--- a/HOPSAN++/Multicore Benchmark.xlsx
+++ b/HOPSAN++/Multicore Benchmark.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="output_singlethreaded" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -36,7 +36,7 @@
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="C:\Users\robbr48\Documents\Subversion\Hopsan++\bin\output_multithreaded.xml" htmlTables="1"/>
   </connection>
   <connection id="6" name="output_multithreaded4" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="E:\Dokument\__Subversion\HOPSAN++\bin\output_multithreaded_2011-06-23_22-08.xml" htmlTables="1"/>
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="C:\Users\robbr48\Desktop\HopsanBenchmarkRelease\bin\output_multithreaded.xml" htmlTables="1"/>
   </connection>
   <connection id="7" name="output_singlethreaded" type="6" refreshedVersion="4" background="1">
     <textPr sourceFile="C:\Users\robbr48\Documents\Subversion\Hopsan++\bin\output_singlethreaded.csv" decimal="," thousands=" " comma="1">
@@ -53,7 +53,7 @@
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="C:\Users\robbr48\Documents\Subversion\Hopsan++\bin\output_singlethreaded.xml" htmlTables="1"/>
   </connection>
   <connection id="10" name="output_singlethreaded3" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="E:\Dokument\__Subversion\HOPSAN++\bin\output_singlethreaded_2011-06-23_22-08.xml" htmlTables="1"/>
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="C:\Users\robbr48\Desktop\HopsanBenchmarkRelease\bin\output_singlethreaded.xml" htmlTables="1"/>
   </connection>
 </connections>
 </file>
@@ -339,292 +339,517 @@
                 <c:formatCode>@</c:formatCode>
                 <c:ptCount val="499"/>
                 <c:pt idx="0">
-                  <c:v>390.83422444600001</c:v>
+                  <c:v>15512.108549299999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>741.25804163400005</c:v>
+                  <c:v>416.635069139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1592.17021656</c:v>
+                  <c:v>9625.2756029100001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2821.8832966999998</c:v>
+                  <c:v>7303.2788405299998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2969.3524671599998</c:v>
+                  <c:v>318.074463568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3722.72860231</c:v>
+                  <c:v>22752.783879499999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3788.2833954900002</c:v>
+                  <c:v>3534.6546265799998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4193.2990882800004</c:v>
+                  <c:v>6960.1979452100004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4871.7428776200004</c:v>
+                  <c:v>14545.2799906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4884.7473402400001</c:v>
+                  <c:v>6420.9347082499999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4920.6382655199995</c:v>
+                  <c:v>12642.3214658</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5304.6623949599998</c:v>
+                  <c:v>11149.9823036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5752.5614299600002</c:v>
+                  <c:v>16589.8208371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7164.7805721100003</c:v>
+                  <c:v>22673.654569800001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7269.2231937899996</c:v>
+                  <c:v>7225.6021726899999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7567.1413070999997</c:v>
+                  <c:v>17378.7244087</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7734.68889416</c:v>
+                  <c:v>9523.7141346600001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7800.3242880799999</c:v>
+                  <c:v>12812.657887699999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8076.1161571000002</c:v>
+                  <c:v>12556.799638</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8574.8995948800002</c:v>
+                  <c:v>18315.356234499999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8632.8436645900001</c:v>
+                  <c:v>20005.967314500002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8676.9693303599997</c:v>
+                  <c:v>3505.92956172</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8892.0937350799995</c:v>
+                  <c:v>18988.727772300001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9932.0646502700001</c:v>
+                  <c:v>17019.585830299999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10623.693356</c:v>
+                  <c:v>3684.7856357599999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10688.4748198</c:v>
+                  <c:v>14399.4828125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10696.813603500001</c:v>
+                  <c:v>17145.8741157</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11009.2536731</c:v>
+                  <c:v>20945.697969199999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11581.074131900001</c:v>
+                  <c:v>4500.6012442499996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11708.457627399999</c:v>
+                  <c:v>20525.548335300002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12083.7482067</c:v>
+                  <c:v>15112.1437554</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12677.3336433</c:v>
+                  <c:v>5556.9883464599998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12689.021793</c:v>
+                  <c:v>6631.88120385</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13700.887424</c:v>
+                  <c:v>5193.9297997200001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13890.351378400001</c:v>
+                  <c:v>18168.3245398</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14107.814584399999</c:v>
+                  <c:v>5651.0028291999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14187.9254196</c:v>
+                  <c:v>17335.906366800002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14540.655895800001</c:v>
+                  <c:v>22854.806746099999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14650.6045323</c:v>
+                  <c:v>19023.695791599999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14720.6283128</c:v>
+                  <c:v>18315.079936800001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16859.570973800001</c:v>
+                  <c:v>9195.3859605599991</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17412.3747883</c:v>
+                  <c:v>2641.6129329599999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17434.911226</c:v>
+                  <c:v>680.17336333499998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18668.3336595</c:v>
+                  <c:v>15816.0900564</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>18910.754191200002</c:v>
+                  <c:v>15009.1036893</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>19123.749297900002</c:v>
+                  <c:v>23068.333275000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>19633.7800842</c:v>
+                  <c:v>12505.905253700001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21045.201682800001</c:v>
+                  <c:v>2614.34229538</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>23641.594652100001</c:v>
+                  <c:v>6084.1158160599998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24252.254326999999</c:v>
+                  <c:v>2047.6185379799999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>24783.774999900001</c:v>
+                  <c:v>21876.814413</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25090.456521100001</c:v>
+                  <c:v>17346.0885671</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25125.9033156</c:v>
+                  <c:v>10394.4266321</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>25175.064190000001</c:v>
+                  <c:v>23377.240078899998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>25971.616144299998</c:v>
+                  <c:v>2675.6245284400002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>26166.4167724</c:v>
+                  <c:v>1728.02317928</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>27541.835665099999</c:v>
+                  <c:v>2041.6894394999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>28296.456521799999</c:v>
+                  <c:v>11969.999414100001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>28674.004790999999</c:v>
+                  <c:v>15841.298935299999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>29019.694143799999</c:v>
+                  <c:v>2678.5878031699999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>29314.1481064</c:v>
+                  <c:v>3526.80373444</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29682.6549772</c:v>
+                  <c:v>21718.015347799999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30411.637213800001</c:v>
+                  <c:v>5236.4847792999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>31726.1803439</c:v>
+                  <c:v>22575.207483999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>31809.044152300001</c:v>
+                  <c:v>11823.327780899999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>33098.0124679</c:v>
+                  <c:v>22731.0390291</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>33559.458067699998</c:v>
+                  <c:v>12050.6711402</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>34724.760599699999</c:v>
+                  <c:v>8858.2511829499999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>35088.1754697</c:v>
+                  <c:v>4907.5065032100001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>35108.1432671</c:v>
+                  <c:v>5872.8802095000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>35331.721500400003</c:v>
+                  <c:v>16161.6590134</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>35600.210022899999</c:v>
+                  <c:v>12314.534254300001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>37096.033220400001</c:v>
+                  <c:v>22612.372974900001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>37796.883465300001</c:v>
+                  <c:v>12442.2131737</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>38373.323273499998</c:v>
+                  <c:v>12716.0460241</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>38793.885220700002</c:v>
+                  <c:v>2642.9558662999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>39118.769055099998</c:v>
+                  <c:v>2520.0585078899999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>39284.822003699999</c:v>
+                  <c:v>13316.826636600001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>39561.342670700004</c:v>
+                  <c:v>15489.9714872</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>39674.515047200002</c:v>
+                  <c:v>21668.292770399999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>40560.465864999998</c:v>
+                  <c:v>4667.0923797100004</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>40731.301496100001</c:v>
+                  <c:v>5300.0361480199999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>41409.453615400002</c:v>
+                  <c:v>9077.7943419099993</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42037.591627200003</c:v>
+                  <c:v>16983.788927400001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43257.847326000003</c:v>
+                  <c:v>11343.2548455</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43752.778843400003</c:v>
+                  <c:v>4871.8699027900002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>45344.291788100003</c:v>
+                  <c:v>16907.571335299999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>46094.859926899997</c:v>
+                  <c:v>911.94148455599998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>46264.170730899998</c:v>
+                  <c:v>2580.1807041000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>46320.172605799999</c:v>
+                  <c:v>19702.982490999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>46443.476093999998</c:v>
+                  <c:v>19620.594053299999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>46617.759478100001</c:v>
+                  <c:v>3619.2937072599998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>46768.580167599997</c:v>
+                  <c:v>23370.149615900002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>47535.326885000002</c:v>
+                  <c:v>19148.246344899999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>47766.981414299997</c:v>
+                  <c:v>17718.7243203</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>47919.177763899999</c:v>
+                  <c:v>11286.1336878</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14880.971312400001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9193.6727797599997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>22469.289081300001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>22376.568385300001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7014.0188434199999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11226.339342499999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5213.4570540799996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14790.2577341</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3922.4902333800001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4849.2588324799999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15817.419135300001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23948.213942400002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11048.8198429</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19275.778640699999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>345.33492384900001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5619.1094898000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>16110.756393899999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>19723.269103400002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23342.947015999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>10757.1676229</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>17981.632138100002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10667.8592976</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10622.9966893</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9448.4591573599992</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>15744.614810200001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4257.2823196500003</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10162.3851952</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>15292.590927900001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7949.4494466599999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2999.35571815</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>18813.3985216</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>17505.057582099998</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9089.7607723300007</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7524.4085442699998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6594.5827638700002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11842.8094917</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6989.2329247600001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13513.552226600001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>16076.676944500001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1469.0810843199999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4676.9176931100001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>21398.505924500001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>23160.065941199999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3517.51916635</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>16531.726429599999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>18732.7856651</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>10962.0078588</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5977.5239770400003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>413.29681093099998</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6032.21225254</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>20280.577217499998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>12306.369730300001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5371.4504932600003</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7048.8868044500005</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>13017.0736029</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>17899.577187399998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>11135.965268</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8308.2766077100005</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9925.8021389299993</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>21278.376061999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>22930.0957375</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>14702.8094858</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6964.9739774299996</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7273.4836414399997</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>17036.562344000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>18291.883601500002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>19546.790257600001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2652.1654024700001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>9842.5945396700008</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>23040.433373</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>21950.124358199999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1655.2545659499999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16513.860075299999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>20476.441475600001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>11635.505999200001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,292 +861,517 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="499"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="88">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="136">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>495</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>576</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>583</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>603</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>654</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>662</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>686</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>693</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>693</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>697</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>701</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>731</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>744</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>755</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>763</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>773</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>779</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>813</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>826</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>851</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>858</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>889</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>906</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>907</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>909</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>914</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>935</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>938</c:v>
+                <c:pt idx="137">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,287 +1404,512 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="499"/>
-                <c:pt idx="0">
-                  <c:v>323.21321234999999</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>571.28726763700001</c:v>
+                  <c:v>8273.9524843100007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1827.4893022599999</c:v>
+                  <c:v>2539.1254250799998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2869.8837242599998</c:v>
+                  <c:v>22723.584422600001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3250.4218289199998</c:v>
+                  <c:v>7330.7782101900002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3580.8623707000002</c:v>
+                  <c:v>10004.80495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3819.35374189</c:v>
+                  <c:v>19644.259879000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4569.9982108100003</c:v>
+                  <c:v>12179.443460099999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6227.8440259700001</c:v>
+                  <c:v>16604.489277000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6863.0362533699999</c:v>
+                  <c:v>409.635537903</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7902.0372757300001</c:v>
+                  <c:v>9666.1369472099996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8320.5765446500009</c:v>
+                  <c:v>19650.465058599999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8341.4031370600005</c:v>
+                  <c:v>17266.872744299999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8650.4578493200006</c:v>
+                  <c:v>4232.1334346200001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9714.7154570700004</c:v>
+                  <c:v>14976.9205621</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9907.8923166700006</c:v>
+                  <c:v>15307.8443659</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10034.271810300001</c:v>
+                  <c:v>20173.198538500001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10217.3992567</c:v>
+                  <c:v>19123.458903499999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10288.161922200001</c:v>
+                  <c:v>22961.518875000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10446.934197500001</c:v>
+                  <c:v>3986.4560842800001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12742.238468699999</c:v>
+                  <c:v>16568.054429600001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13158.439247599999</c:v>
+                  <c:v>8074.7632312400001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13377.045838</c:v>
+                  <c:v>18560.3075909</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13612.777423199999</c:v>
+                  <c:v>14794.1756969</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13973.8473873</c:v>
+                  <c:v>16702.5478979</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14262.6290701</c:v>
+                  <c:v>11770.338306199999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14838.5066071</c:v>
+                  <c:v>7950.7061565699996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15197.195265599999</c:v>
+                  <c:v>2960.8821611200001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15249.119588400001</c:v>
+                  <c:v>22415.1402905</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15787.883617699999</c:v>
+                  <c:v>10714.369011999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16592.388265099999</c:v>
+                  <c:v>23113.2069281</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17024.0103925</c:v>
+                  <c:v>14007.668460299999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17253.789779700001</c:v>
+                  <c:v>3675.2224774800002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17678.159949299999</c:v>
+                  <c:v>6199.5934298399998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13678.594816299999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18764.079593900002</c:v>
+                  <c:v>19062.627923</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19616.018788199999</c:v>
+                  <c:v>2500.5506866400001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20191.0663823</c:v>
+                  <c:v>22013.714090900001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20753.294749500001</c:v>
+                  <c:v>17176.367643099999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21119.442333200001</c:v>
+                  <c:v>2252.5179842900002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21570.698581799999</c:v>
+                  <c:v>19342.970789399998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>21796.625312299999</c:v>
+                  <c:v>7814.9851077399999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23324.5044825</c:v>
+                  <c:v>18201.4451892</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23675.331007799999</c:v>
+                  <c:v>22077.924419200001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24083.379772699998</c:v>
+                  <c:v>12466.091383499999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>25042.279470199999</c:v>
+                  <c:v>17285.926505399999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>26113.656851399999</c:v>
+                  <c:v>13112.144313000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>26458.601413600001</c:v>
+                  <c:v>101.28843813500001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>27356.787816200002</c:v>
+                  <c:v>18196.8159199</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>27761.3232369</c:v>
+                  <c:v>14565.936386699999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>29399.8298049</c:v>
+                  <c:v>3099.0762411199998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>29903.017036699999</c:v>
+                  <c:v>10088.4482878</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>30116.174396900002</c:v>
+                  <c:v>16515.006901600002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>31813.797420499999</c:v>
+                  <c:v>5702.44140694</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33298.414059700001</c:v>
+                  <c:v>13327.0852266</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>33478.6513653</c:v>
+                  <c:v>17316.3889084</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>34437.5756454</c:v>
+                  <c:v>9178.0846526000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>35175.107201300001</c:v>
+                  <c:v>21162.836540299999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>35425.4615175</c:v>
+                  <c:v>9034.4802996899998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>36754.7775635</c:v>
+                  <c:v>10403.068858299999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>37315.780667300001</c:v>
+                  <c:v>12313.8494859</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>38052.689175200001</c:v>
+                  <c:v>12874.032617499999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>38113.108053600001</c:v>
+                  <c:v>1710.62315113</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>38135.187006200002</c:v>
+                  <c:v>5955.4871712300001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>38479.921678300001</c:v>
+                  <c:v>9094.7967951800001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>39187.0465386</c:v>
+                  <c:v>21929.540906999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>39460.702339700001</c:v>
+                  <c:v>20443.7626566</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>39550.373847800001</c:v>
+                  <c:v>8616.14989685</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>39632.449443199999</c:v>
+                  <c:v>21492.834028699999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>39665.052001199998</c:v>
+                  <c:v>12697.1889223</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>40308.156565700003</c:v>
+                  <c:v>17531.299833699999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>40317.064094300003</c:v>
+                  <c:v>21056.389229299999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>40346.720999099998</c:v>
+                  <c:v>6530.3515521700001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>40441.3422508</c:v>
+                  <c:v>14211.8746596</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>40624.087526399999</c:v>
+                  <c:v>4029.6277524799998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>40638.160994700003</c:v>
+                  <c:v>1808.0488669399999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>41252.931561199999</c:v>
+                  <c:v>5665.2461187099998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>41713.0143102</c:v>
+                  <c:v>13510.7994062</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16253.200031</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42451.739689100003</c:v>
+                  <c:v>12140.4614444</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42518.305621899999</c:v>
+                  <c:v>1644.73377934</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42617.944989000003</c:v>
+                  <c:v>18888.5615306</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>43517.060079100003</c:v>
+                  <c:v>19197.419624599999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43679.658094600003</c:v>
+                  <c:v>4899.4737517000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43985.453197000003</c:v>
+                  <c:v>20073.7166077</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>44259.616654799996</c:v>
+                  <c:v>22114.144322100001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>45180.061603399998</c:v>
+                  <c:v>8282.6837931999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45376.448566599996</c:v>
+                  <c:v>5387.5060275599999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>45637.083181399998</c:v>
+                  <c:v>10520.4611905</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>45820.152305299998</c:v>
+                  <c:v>2703.79425042</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>45905.780090200002</c:v>
+                  <c:v>5870.4331548800001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>46178.059466899998</c:v>
+                  <c:v>22902.294865399999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>46657.138996900001</c:v>
+                  <c:v>19759.265219299999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>47057.563222800003</c:v>
+                  <c:v>17109.151576100001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>47921.5240911</c:v>
+                  <c:v>5504.7596092499998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>48342.567555100002</c:v>
+                  <c:v>10550.3813596</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>12610.830366800001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10496.466315</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>181.23004471100001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>15739.0721072</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>13463.1825295</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9248.4326540900001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9569.17714781</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6549.3689541200001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>15849.2721853</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5703.7527334200004</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3481.85357879</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1808.85101457</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10550.012851400001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>176.292996088</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2852.7490067099998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2964.7176792</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>19274.629850199999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>13138.3135296</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>13163.9019721</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>20643.9280445</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12799.149118200001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2136.86404614</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>22502.304874599999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>141.560919442</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6340.2181031600003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>11900.4176357</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3166.8664356499999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7108.6496087799997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>18925.2008154</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>23876.705531200001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8238.0165412400002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6959.1844244399999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3371.8435781899998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>23195.614163800001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>23075.7123742</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2450.74830131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10741.4748432</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2551.6982616400001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9241.8618427700003</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>23775.426039599999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7173.6223652299996</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5496.2713899399996</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13286.823158200001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>10667.096952</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>241.81980279499999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6281.30013151</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>12403.2455983</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>247.247033378</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2714.91512994</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>21411.292715700001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>15353.3837121</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7049.9352661499997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8312.0174873199994</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3313.71163088</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>22951.518797000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>17405.188402200001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12802.6707532</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7569.1474808200001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>14022.880140200001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>20477.877157899999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>22003.3848717</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>20957.9539573</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8051.2163890900001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16255.274505699999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5158.7371783999997</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>12184.8869008</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6618.8374060200003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7759.7307676399996</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>20530.912187900001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>13934.700808</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15273.3622201</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16819.692133500001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2480.0723621500001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23304.623157400001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,287 +1920,512 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="499"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="48">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="84">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="104">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="154">
                   <c:v>270</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="155">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="165">
                   <c:v>280</c:v>
                 </c:pt>
-                <c:pt idx="84">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>324</c:v>
+                <c:pt idx="166">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,11 +2440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="79319040"/>
-        <c:axId val="79320576"/>
+        <c:axId val="99768576"/>
+        <c:axId val="99790848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79319040"/>
+        <c:axId val="99768576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,12 +2454,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79320576"/>
+        <c:crossAx val="99790848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79320576"/>
+        <c:axId val="99790848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +2470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79319040"/>
+        <c:crossAx val="99768576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1628,8 +2528,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:B97" tableType="xml" totalsRowShown="0" connectionId="10">
-  <autoFilter ref="A1:B97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:B172" tableType="xml" totalsRowShown="0" connectionId="10">
+  <autoFilter ref="A1:B172"/>
   <sortState ref="A2:B97">
     <sortCondition ref="A1:A97"/>
   </sortState>
@@ -1646,8 +2546,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="D1:E97" tableType="xml" totalsRowShown="0" headerRowDxfId="2" connectionId="6">
-  <autoFilter ref="D1:E97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="D1:E171" tableType="xml" totalsRowShown="0" headerRowDxfId="2" connectionId="6">
+  <autoFilter ref="D1:E171"/>
   <sortState ref="D2:E97">
     <sortCondition ref="D1:D97"/>
   </sortState>
@@ -1664,7 +2564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1950,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,1346 +2896,2394 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>390.83422444600001</v>
+        <v>15512.108549299999</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>841</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>323.21321234999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>40</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>741.25804163400005</v>
+        <v>416.635069139</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>571.28726763700001</v>
+        <v>8273.9524843100007</v>
       </c>
       <c r="E3" s="1">
-        <v>44</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1592.17021656</v>
+        <v>9625.2756029100001</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>550</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>1827.4893022599999</v>
+        <v>2539.1254250799998</v>
       </c>
       <c r="E4" s="1">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2821.8832966999998</v>
+        <v>7303.2788405299998</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>430</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>2869.8837242599998</v>
+        <v>22723.584422600001</v>
       </c>
       <c r="E5" s="1">
-        <v>52</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2969.3524671599998</v>
+        <v>318.074463568</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>3250.4218289199998</v>
+        <v>7330.7782101900002</v>
       </c>
       <c r="E6" s="1">
-        <v>56</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>3722.72860231</v>
+        <v>22752.783879499999</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>1210</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>3580.8623707000002</v>
+        <v>10004.80495</v>
       </c>
       <c r="E7" s="1">
-        <v>58</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>3788.2833954900002</v>
+        <v>3534.6546265799998</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>3819.35374189</v>
+        <v>19644.259879000001</v>
       </c>
       <c r="E8" s="1">
-        <v>56</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>4193.2990882800004</v>
+        <v>6960.1979452100004</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>4569.9982108100003</v>
+        <v>12179.443460099999</v>
       </c>
       <c r="E9" s="1">
-        <v>61</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>4871.7428776200004</v>
+        <v>14545.2799906</v>
       </c>
       <c r="B10">
-        <v>113</v>
+        <v>790</v>
       </c>
       <c r="D10" s="1">
-        <v>6227.8440259700001</v>
+        <v>16604.489277000001</v>
       </c>
       <c r="E10" s="1">
-        <v>75</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>4884.7473402400001</v>
+        <v>6420.9347082499999</v>
       </c>
       <c r="B11">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="D11" s="1">
-        <v>6863.0362533699999</v>
+        <v>409.635537903</v>
       </c>
       <c r="E11" s="1">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>4920.6382655199995</v>
+        <v>12642.3214658</v>
       </c>
       <c r="B12">
-        <v>114</v>
+        <v>690</v>
       </c>
       <c r="D12" s="1">
-        <v>7902.0372757300001</v>
+        <v>9666.1369472099996</v>
       </c>
       <c r="E12" s="1">
-        <v>85</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>5304.6623949599998</v>
+        <v>11149.9823036</v>
       </c>
       <c r="B13">
-        <v>122</v>
+        <v>610</v>
       </c>
       <c r="D13" s="1">
-        <v>8320.5765446500009</v>
+        <v>19650.465058599999</v>
       </c>
       <c r="E13" s="1">
-        <v>79</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>5752.5614299600002</v>
+        <v>16589.8208371</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>890</v>
       </c>
       <c r="D14" s="1">
-        <v>8341.4031370600005</v>
+        <v>17266.872744299999</v>
       </c>
       <c r="E14" s="1">
-        <v>89</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>7164.7805721100003</v>
+        <v>22673.654569800001</v>
       </c>
       <c r="B15">
-        <v>157</v>
+        <v>1190</v>
       </c>
       <c r="D15" s="1">
-        <v>8650.4578493200006</v>
+        <v>4232.1334346200001</v>
       </c>
       <c r="E15" s="1">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>7269.2231937899996</v>
+        <v>7225.6021726899999</v>
       </c>
       <c r="B16">
-        <v>159</v>
+        <v>410</v>
       </c>
       <c r="D16" s="1">
-        <v>9714.7154570700004</v>
+        <v>14976.9205621</v>
       </c>
       <c r="E16" s="1">
-        <v>92</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>7567.1413070999997</v>
+        <v>17378.7244087</v>
       </c>
       <c r="B17">
-        <v>164</v>
+        <v>930</v>
       </c>
       <c r="D17" s="1">
-        <v>9907.8923166700006</v>
+        <v>15307.8443659</v>
       </c>
       <c r="E17" s="1">
-        <v>94</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>7734.68889416</v>
+        <v>9523.7141346600001</v>
       </c>
       <c r="B18">
-        <v>168</v>
+        <v>540</v>
       </c>
       <c r="D18" s="1">
-        <v>10034.271810300001</v>
+        <v>20173.198538500001</v>
       </c>
       <c r="E18" s="1">
-        <v>95</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>7800.3242880799999</v>
+        <v>12812.657887699999</v>
       </c>
       <c r="B19">
-        <v>169</v>
+        <v>720</v>
       </c>
       <c r="D19" s="1">
-        <v>10217.3992567</v>
+        <v>19123.458903499999</v>
       </c>
       <c r="E19" s="1">
-        <v>95</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>8076.1161571000002</v>
+        <v>12556.799638</v>
       </c>
       <c r="B20">
-        <v>176</v>
+        <v>690</v>
       </c>
       <c r="D20" s="1">
-        <v>10288.161922200001</v>
+        <v>22961.518875000002</v>
       </c>
       <c r="E20" s="1">
-        <v>95</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>8574.8995948800002</v>
+        <v>18315.356234499999</v>
       </c>
       <c r="B21">
-        <v>184</v>
+        <v>980</v>
       </c>
       <c r="D21" s="1">
-        <v>10446.934197500001</v>
+        <v>3986.4560842800001</v>
       </c>
       <c r="E21" s="1">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>8632.8436645900001</v>
+        <v>20005.967314500002</v>
       </c>
       <c r="B22">
-        <v>185</v>
+        <v>1070</v>
       </c>
       <c r="D22" s="1">
-        <v>12742.238468699999</v>
+        <v>16568.054429600001</v>
       </c>
       <c r="E22" s="1">
-        <v>106</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>8676.9693303599997</v>
+        <v>3505.92956172</v>
       </c>
       <c r="B23">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="D23" s="1">
-        <v>13158.439247599999</v>
+        <v>8074.7632312400001</v>
       </c>
       <c r="E23" s="1">
-        <v>111</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>8892.0937350799995</v>
+        <v>18988.727772300001</v>
       </c>
       <c r="B24">
-        <v>191</v>
+        <v>1010</v>
       </c>
       <c r="D24" s="1">
-        <v>13377.045838</v>
+        <v>18560.3075909</v>
       </c>
       <c r="E24" s="1">
-        <v>109</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>9932.0646502700001</v>
+        <v>17019.585830299999</v>
       </c>
       <c r="B25">
-        <v>210</v>
+        <v>920</v>
       </c>
       <c r="D25" s="1">
-        <v>13612.777423199999</v>
+        <v>14794.1756969</v>
       </c>
       <c r="E25" s="1">
-        <v>111</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>10623.693356</v>
+        <v>3684.7856357599999</v>
       </c>
       <c r="B26">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D26" s="1">
-        <v>13973.8473873</v>
+        <v>16702.5478979</v>
       </c>
       <c r="E26" s="1">
-        <v>114</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>10688.4748198</v>
+        <v>14399.4828125</v>
       </c>
       <c r="B27">
-        <v>224</v>
+        <v>781</v>
       </c>
       <c r="D27" s="1">
-        <v>14262.6290701</v>
+        <v>11770.338306199999</v>
       </c>
       <c r="E27" s="1">
-        <v>123</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>10696.813603500001</v>
+        <v>17145.8741157</v>
       </c>
       <c r="B28">
-        <v>225</v>
+        <v>920</v>
       </c>
       <c r="D28" s="1">
-        <v>14838.5066071</v>
+        <v>7950.7061565699996</v>
       </c>
       <c r="E28" s="1">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>11009.2536731</v>
+        <v>20945.697969199999</v>
       </c>
       <c r="B29">
-        <v>232</v>
+        <v>1110</v>
       </c>
       <c r="D29" s="1">
-        <v>15197.195265599999</v>
+        <v>2960.8821611200001</v>
       </c>
       <c r="E29" s="1">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>11581.074131900001</v>
+        <v>4500.6012442499996</v>
       </c>
       <c r="B30">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="D30" s="1">
-        <v>15249.119588400001</v>
+        <v>22415.1402905</v>
       </c>
       <c r="E30" s="1">
-        <v>117</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>11708.457627399999</v>
+        <v>20525.548335300002</v>
       </c>
       <c r="B31">
-        <v>244</v>
+        <v>1080</v>
       </c>
       <c r="D31" s="1">
-        <v>15787.883617699999</v>
+        <v>10714.369011999999</v>
       </c>
       <c r="E31" s="1">
-        <v>122</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>12083.7482067</v>
+        <v>15112.1437554</v>
       </c>
       <c r="B32">
-        <v>252</v>
+        <v>820</v>
       </c>
       <c r="D32" s="1">
-        <v>16592.388265099999</v>
+        <v>23113.2069281</v>
       </c>
       <c r="E32" s="1">
-        <v>128</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>12677.3336433</v>
+        <v>5556.9883464599998</v>
       </c>
       <c r="B33">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="D33" s="1">
-        <v>17024.0103925</v>
+        <v>14007.668460299999</v>
       </c>
       <c r="E33" s="1">
-        <v>137</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>12689.021793</v>
+        <v>6631.88120385</v>
       </c>
       <c r="B34">
-        <v>263</v>
+        <v>390</v>
       </c>
       <c r="D34" s="1">
-        <v>17253.789779700001</v>
+        <v>3675.2224774800002</v>
       </c>
       <c r="E34" s="1">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>13700.887424</v>
+        <v>5193.9297997200001</v>
       </c>
       <c r="B35">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="D35" s="1">
-        <v>17678.159949299999</v>
+        <v>6199.5934298399998</v>
       </c>
       <c r="E35" s="1">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>13890.351378400001</v>
+        <v>18168.3245398</v>
       </c>
       <c r="B36">
-        <v>286</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+        <v>960</v>
+      </c>
+      <c r="D36" s="1">
+        <v>13678.594816299999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>270</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>14107.814584399999</v>
+        <v>5651.0028291999997</v>
       </c>
       <c r="B37">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="D37" s="1">
-        <v>18764.079593900002</v>
+        <v>19062.627923</v>
       </c>
       <c r="E37" s="1">
-        <v>175</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>14187.9254196</v>
+        <v>17335.906366800002</v>
       </c>
       <c r="B38">
-        <v>292</v>
+        <v>930</v>
       </c>
       <c r="D38" s="1">
-        <v>19616.018788199999</v>
+        <v>2500.5506866400001</v>
       </c>
       <c r="E38" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>14540.655895800001</v>
+        <v>22854.806746099999</v>
       </c>
       <c r="B39">
-        <v>299</v>
+        <v>1210</v>
       </c>
       <c r="D39" s="1">
-        <v>20191.0663823</v>
+        <v>22013.714090900001</v>
       </c>
       <c r="E39" s="1">
-        <v>149</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>14650.6045323</v>
+        <v>19023.695791599999</v>
       </c>
       <c r="B40">
-        <v>300</v>
+        <v>1010</v>
       </c>
       <c r="D40" s="1">
-        <v>20753.294749500001</v>
+        <v>17176.367643099999</v>
       </c>
       <c r="E40" s="1">
-        <v>161</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>14720.6283128</v>
+        <v>18315.079936800001</v>
       </c>
       <c r="B41">
-        <v>302</v>
+        <v>970</v>
       </c>
       <c r="D41" s="1">
-        <v>21119.442333200001</v>
+        <v>2252.5179842900002</v>
       </c>
       <c r="E41" s="1">
-        <v>155</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>16859.570973800001</v>
+        <v>9195.3859605599991</v>
       </c>
       <c r="B42">
-        <v>342</v>
+        <v>510</v>
       </c>
       <c r="D42" s="1">
-        <v>21570.698581799999</v>
+        <v>19342.970789399998</v>
       </c>
       <c r="E42" s="1">
-        <v>168</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>17412.3747883</v>
+        <v>2641.6129329599999</v>
       </c>
       <c r="B43">
-        <v>353</v>
+        <v>180</v>
       </c>
       <c r="D43" s="1">
-        <v>21796.625312299999</v>
+        <v>7814.9851077399999</v>
       </c>
       <c r="E43" s="1">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>17434.911226</v>
+        <v>680.17336333499998</v>
       </c>
       <c r="B44">
-        <v>353</v>
+        <v>90</v>
       </c>
       <c r="D44" s="1">
-        <v>23324.5044825</v>
+        <v>18201.4451892</v>
       </c>
       <c r="E44" s="1">
-        <v>175</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>18668.3336595</v>
+        <v>15816.0900564</v>
       </c>
       <c r="B45">
-        <v>378</v>
+        <v>850</v>
       </c>
       <c r="D45" s="1">
-        <v>23675.331007799999</v>
+        <v>22077.924419200001</v>
       </c>
       <c r="E45" s="1">
-        <v>179</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>18910.754191200002</v>
+        <v>15009.1036893</v>
       </c>
       <c r="B46">
-        <v>383</v>
+        <v>800</v>
       </c>
       <c r="D46" s="1">
-        <v>24083.379772699998</v>
+        <v>12466.091383499999</v>
       </c>
       <c r="E46" s="1">
-        <v>175</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>19123.749297900002</v>
+        <v>23068.333275000001</v>
       </c>
       <c r="B47">
-        <v>387</v>
+        <v>1230</v>
       </c>
       <c r="D47" s="1">
-        <v>25042.279470199999</v>
+        <v>17285.926505399999</v>
       </c>
       <c r="E47" s="1">
-        <v>178</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>19633.7800842</v>
+        <v>12505.905253700001</v>
       </c>
       <c r="B48">
-        <v>397</v>
+        <v>690</v>
       </c>
       <c r="D48" s="1">
-        <v>26113.656851399999</v>
+        <v>13112.144313000001</v>
       </c>
       <c r="E48" s="1">
-        <v>187</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>21045.201682800001</v>
+        <v>2614.34229538</v>
       </c>
       <c r="B49">
-        <v>422</v>
+        <v>180</v>
       </c>
       <c r="D49" s="1">
-        <v>26458.601413600001</v>
+        <v>101.28843813500001</v>
       </c>
       <c r="E49" s="1">
-        <v>183</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>23641.594652100001</v>
+        <v>6084.1158160599998</v>
       </c>
       <c r="B50">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="D50" s="1">
-        <v>27356.787816200002</v>
+        <v>18196.8159199</v>
       </c>
       <c r="E50" s="1">
-        <v>187</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>24252.254326999999</v>
+        <v>2047.6185379799999</v>
       </c>
       <c r="B51">
-        <v>485</v>
+        <v>160</v>
       </c>
       <c r="D51" s="1">
-        <v>27761.3232369</v>
+        <v>14565.936386699999</v>
       </c>
       <c r="E51" s="1">
-        <v>189</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>24783.774999900001</v>
+        <v>21876.814413</v>
       </c>
       <c r="B52">
-        <v>495</v>
+        <v>1160</v>
       </c>
       <c r="D52" s="1">
-        <v>29399.8298049</v>
+        <v>3099.0762411199998</v>
       </c>
       <c r="E52" s="1">
-        <v>198</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>25090.456521100001</v>
+        <v>17346.0885671</v>
       </c>
       <c r="B53">
-        <v>500</v>
+        <v>930</v>
       </c>
       <c r="D53" s="1">
-        <v>29903.017036699999</v>
+        <v>10088.4482878</v>
       </c>
       <c r="E53" s="1">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>25125.9033156</v>
+        <v>10394.4266321</v>
       </c>
       <c r="B54">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="D54" s="1">
-        <v>30116.174396900002</v>
+        <v>16515.006901600002</v>
       </c>
       <c r="E54" s="1">
-        <v>219</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>25175.064190000001</v>
+        <v>23377.240078899998</v>
       </c>
       <c r="B55">
-        <v>502</v>
+        <v>1230</v>
       </c>
       <c r="D55" s="1">
-        <v>31813.797420499999</v>
+        <v>5702.44140694</v>
       </c>
       <c r="E55" s="1">
-        <v>225</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>25971.616144299998</v>
+        <v>2675.6245284400002</v>
       </c>
       <c r="B56">
-        <v>518</v>
+        <v>190</v>
       </c>
       <c r="D56" s="1">
-        <v>33298.414059700001</v>
+        <v>13327.0852266</v>
       </c>
       <c r="E56" s="1">
-        <v>221</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>26166.4167724</v>
+        <v>1728.02317928</v>
       </c>
       <c r="B57">
-        <v>521</v>
+        <v>140</v>
       </c>
       <c r="D57" s="1">
-        <v>33478.6513653</v>
+        <v>17316.3889084</v>
       </c>
       <c r="E57" s="1">
-        <v>239</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>27541.835665099999</v>
+        <v>2041.6894394999999</v>
       </c>
       <c r="B58">
-        <v>549</v>
+        <v>150</v>
       </c>
       <c r="D58" s="1">
-        <v>34437.5756454</v>
+        <v>9178.0846526000005</v>
       </c>
       <c r="E58" s="1">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>28296.456521799999</v>
+        <v>11969.999414100001</v>
       </c>
       <c r="B59">
-        <v>562</v>
+        <v>660</v>
       </c>
       <c r="D59" s="1">
-        <v>35175.107201300001</v>
+        <v>21162.836540299999</v>
       </c>
       <c r="E59" s="1">
-        <v>222</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>28674.004790999999</v>
+        <v>15841.298935299999</v>
       </c>
       <c r="B60">
-        <v>569</v>
+        <v>860</v>
       </c>
       <c r="D60" s="1">
-        <v>35425.4615175</v>
+        <v>9034.4802996899998</v>
       </c>
       <c r="E60" s="1">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>29019.694143799999</v>
+        <v>2678.5878031699999</v>
       </c>
       <c r="B61">
-        <v>576</v>
+        <v>180</v>
       </c>
       <c r="D61" s="1">
-        <v>36754.7775635</v>
+        <v>10403.068858299999</v>
       </c>
       <c r="E61" s="1">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>29314.1481064</v>
+        <v>3526.80373444</v>
       </c>
       <c r="B62">
-        <v>583</v>
+        <v>230</v>
       </c>
       <c r="D62" s="1">
-        <v>37315.780667300001</v>
+        <v>12313.8494859</v>
       </c>
       <c r="E62" s="1">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>29682.6549772</v>
+        <v>21718.015347799999</v>
       </c>
       <c r="B63">
-        <v>590</v>
+        <v>1150</v>
       </c>
       <c r="D63" s="1">
-        <v>38052.689175200001</v>
+        <v>12874.032617499999</v>
       </c>
       <c r="E63" s="1">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>30411.637213800001</v>
+        <v>5236.4847792999999</v>
       </c>
       <c r="B64">
-        <v>603</v>
+        <v>310</v>
       </c>
       <c r="D64" s="1">
-        <v>38113.108053600001</v>
+        <v>1710.62315113</v>
       </c>
       <c r="E64" s="1">
-        <v>252</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>31726.1803439</v>
+        <v>22575.207483999999</v>
       </c>
       <c r="B65">
-        <v>628</v>
+        <v>1190</v>
       </c>
       <c r="D65" s="1">
-        <v>38135.187006200002</v>
+        <v>5955.4871712300001</v>
       </c>
       <c r="E65" s="1">
-        <v>257</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>31809.044152300001</v>
+        <v>11823.327780899999</v>
       </c>
       <c r="B66">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="D66" s="1">
-        <v>38479.921678300001</v>
+        <v>9094.7967951800001</v>
       </c>
       <c r="E66" s="1">
-        <v>255</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>33098.0124679</v>
+        <v>22731.0390291</v>
       </c>
       <c r="B67">
-        <v>654</v>
+        <v>1210</v>
       </c>
       <c r="D67" s="1">
-        <v>39187.0465386</v>
+        <v>21929.540906999999</v>
       </c>
       <c r="E67" s="1">
-        <v>259</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>33559.458067699998</v>
+        <v>12050.6711402</v>
       </c>
       <c r="B68">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D68" s="1">
-        <v>39460.702339700001</v>
+        <v>20443.7626566</v>
       </c>
       <c r="E68" s="1">
-        <v>263</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>34724.760599699999</v>
+        <v>8858.2511829499999</v>
       </c>
       <c r="B69">
-        <v>686</v>
+        <v>500</v>
       </c>
       <c r="D69" s="1">
-        <v>39550.373847800001</v>
+        <v>8616.14989685</v>
       </c>
       <c r="E69" s="1">
-        <v>259</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>35088.1754697</v>
+        <v>4907.5065032100001</v>
       </c>
       <c r="B70">
-        <v>693</v>
+        <v>310</v>
       </c>
       <c r="D70" s="1">
-        <v>39632.449443199999</v>
+        <v>21492.834028699999</v>
       </c>
       <c r="E70" s="1">
-        <v>275</v>
+        <v>410</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>35108.1432671</v>
+        <v>5872.8802095000001</v>
       </c>
       <c r="B71">
-        <v>693</v>
+        <v>340</v>
       </c>
       <c r="D71" s="1">
-        <v>39665.052001199998</v>
+        <v>12697.1889223</v>
       </c>
       <c r="E71" s="1">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>35331.721500400003</v>
+        <v>16161.6590134</v>
       </c>
       <c r="B72">
-        <v>697</v>
+        <v>870</v>
       </c>
       <c r="D72" s="1">
-        <v>40308.156565700003</v>
+        <v>17531.299833699999</v>
       </c>
       <c r="E72" s="1">
-        <v>270</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>35600.210022899999</v>
+        <v>12314.534254300001</v>
       </c>
       <c r="B73">
-        <v>701</v>
+        <v>670</v>
       </c>
       <c r="D73" s="1">
-        <v>40317.064094300003</v>
+        <v>21056.389229299999</v>
       </c>
       <c r="E73" s="1">
-        <v>269</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>37096.033220400001</v>
+        <v>22612.372974900001</v>
       </c>
       <c r="B74">
-        <v>731</v>
+        <v>1200</v>
       </c>
       <c r="D74" s="1">
-        <v>40346.720999099998</v>
+        <v>6530.3515521700001</v>
       </c>
       <c r="E74" s="1">
-        <v>273</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>37796.883465300001</v>
+        <v>12442.2131737</v>
       </c>
       <c r="B75">
-        <v>744</v>
+        <v>670</v>
       </c>
       <c r="D75" s="1">
-        <v>40441.3422508</v>
+        <v>14211.8746596</v>
       </c>
       <c r="E75" s="1">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>38373.323273499998</v>
+        <v>12716.0460241</v>
       </c>
       <c r="B76">
-        <v>755</v>
+        <v>690</v>
       </c>
       <c r="D76" s="1">
-        <v>40624.087526399999</v>
+        <v>4029.6277524799998</v>
       </c>
       <c r="E76" s="1">
-        <v>283</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>38793.885220700002</v>
+        <v>2642.9558662999998</v>
       </c>
       <c r="B77">
-        <v>763</v>
+        <v>190</v>
       </c>
       <c r="D77" s="1">
-        <v>40638.160994700003</v>
+        <v>1808.0488669399999</v>
       </c>
       <c r="E77" s="1">
-        <v>262</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>39118.769055099998</v>
+        <v>2520.0585078899999</v>
       </c>
       <c r="B78">
-        <v>770</v>
+        <v>180</v>
       </c>
       <c r="D78" s="1">
-        <v>41252.931561199999</v>
+        <v>5665.2461187099998</v>
       </c>
       <c r="E78" s="1">
-        <v>263</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>39284.822003699999</v>
+        <v>13316.826636600001</v>
       </c>
       <c r="B79">
-        <v>773</v>
+        <v>720</v>
       </c>
       <c r="D79" s="1">
-        <v>41713.0143102</v>
+        <v>13510.7994062</v>
       </c>
       <c r="E79" s="1">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>39561.342670700004</v>
+        <v>15489.9714872</v>
       </c>
       <c r="B80">
-        <v>779</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+        <v>840</v>
+      </c>
+      <c r="D80" s="1">
+        <v>16253.200031</v>
+      </c>
+      <c r="E80" s="1">
+        <v>320</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>39674.515047200002</v>
+        <v>21668.292770399999</v>
       </c>
       <c r="B81">
-        <v>780</v>
+        <v>1150</v>
       </c>
       <c r="D81" s="1">
-        <v>42451.739689100003</v>
+        <v>12140.4614444</v>
       </c>
       <c r="E81" s="1">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>40560.465864999998</v>
+        <v>4667.0923797100004</v>
       </c>
       <c r="B82">
-        <v>797</v>
+        <v>290</v>
       </c>
       <c r="D82" s="1">
-        <v>42518.305621899999</v>
+        <v>1644.73377934</v>
       </c>
       <c r="E82" s="1">
-        <v>275</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>40731.301496100001</v>
+        <v>5300.0361480199999</v>
       </c>
       <c r="B83">
-        <v>801</v>
+        <v>330</v>
       </c>
       <c r="D83" s="1">
-        <v>42617.944989000003</v>
+        <v>18888.5615306</v>
       </c>
       <c r="E83" s="1">
-        <v>276</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>41409.453615400002</v>
+        <v>9077.7943419099993</v>
       </c>
       <c r="B84">
-        <v>813</v>
+        <v>510</v>
       </c>
       <c r="D84" s="1">
-        <v>43517.060079100003</v>
+        <v>19197.419624599999</v>
       </c>
       <c r="E84" s="1">
-        <v>292</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>42037.591627200003</v>
+        <v>16983.788927400001</v>
       </c>
       <c r="B85">
-        <v>826</v>
+        <v>910</v>
       </c>
       <c r="D85" s="1">
-        <v>43679.658094600003</v>
+        <v>4899.4737517000003</v>
       </c>
       <c r="E85" s="1">
-        <v>280</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>43257.847326000003</v>
+        <v>11343.2548455</v>
       </c>
       <c r="B86">
-        <v>851</v>
+        <v>640</v>
       </c>
       <c r="D86" s="1">
-        <v>43985.453197000003</v>
+        <v>20073.7166077</v>
       </c>
       <c r="E86" s="1">
-        <v>298</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>43752.778843400003</v>
+        <v>4871.8699027900002</v>
       </c>
       <c r="B87">
-        <v>858</v>
+        <v>300</v>
       </c>
       <c r="D87" s="1">
-        <v>44259.616654799996</v>
+        <v>22114.144322100001</v>
       </c>
       <c r="E87" s="1">
-        <v>291</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45344.291788100003</v>
+        <v>16907.571335299999</v>
       </c>
       <c r="B88">
-        <v>889</v>
+        <v>920</v>
       </c>
       <c r="D88" s="1">
-        <v>45180.061603399998</v>
+        <v>8282.6837931999999</v>
       </c>
       <c r="E88" s="1">
-        <v>289</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>46094.859926899997</v>
+        <v>911.94148455599998</v>
       </c>
       <c r="B89">
-        <v>903</v>
+        <v>100</v>
       </c>
       <c r="D89" s="1">
-        <v>45376.448566599996</v>
+        <v>5387.5060275599999</v>
       </c>
       <c r="E89" s="1">
-        <v>296</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>46264.170730899998</v>
+        <v>2580.1807041000002</v>
       </c>
       <c r="B90">
-        <v>906</v>
+        <v>190</v>
       </c>
       <c r="D90" s="1">
-        <v>45637.083181399998</v>
+        <v>10520.4611905</v>
       </c>
       <c r="E90" s="1">
-        <v>292</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>46320.172605799999</v>
+        <v>19702.982490999999</v>
       </c>
       <c r="B91">
-        <v>907</v>
+        <v>1040</v>
       </c>
       <c r="D91" s="1">
-        <v>45820.152305299998</v>
+        <v>2703.79425042</v>
       </c>
       <c r="E91" s="1">
-        <v>312</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>46443.476093999998</v>
+        <v>19620.594053299999</v>
       </c>
       <c r="B92">
-        <v>909</v>
+        <v>1050</v>
       </c>
       <c r="D92" s="1">
-        <v>45905.780090200002</v>
+        <v>5870.4331548800001</v>
       </c>
       <c r="E92" s="1">
-        <v>290</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>46617.759478100001</v>
+        <v>3619.2937072599998</v>
       </c>
       <c r="B93">
-        <v>914</v>
+        <v>230</v>
       </c>
       <c r="D93" s="1">
-        <v>46178.059466899998</v>
+        <v>22902.294865399999</v>
       </c>
       <c r="E93" s="1">
-        <v>292</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>46768.580167599997</v>
+        <v>23370.149615900002</v>
       </c>
       <c r="B94">
-        <v>915</v>
+        <v>1230</v>
       </c>
       <c r="D94" s="1">
-        <v>46657.138996900001</v>
+        <v>19759.265219299999</v>
       </c>
       <c r="E94" s="1">
-        <v>291</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>47535.326885000002</v>
+        <v>19148.246344899999</v>
       </c>
       <c r="B95">
-        <v>929</v>
+        <v>1020</v>
       </c>
       <c r="D95" s="1">
-        <v>47057.563222800003</v>
+        <v>17109.151576100001</v>
       </c>
       <c r="E95" s="1">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>47766.981414299997</v>
+        <v>17718.7243203</v>
       </c>
       <c r="B96">
-        <v>935</v>
+        <v>960</v>
       </c>
       <c r="D96" s="1">
-        <v>47921.5240911</v>
+        <v>5504.7596092499998</v>
       </c>
       <c r="E96" s="1">
-        <v>302</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>47919.177763899999</v>
+        <v>11286.1336878</v>
       </c>
       <c r="B97">
-        <v>938</v>
+        <v>630</v>
       </c>
       <c r="D97" s="1">
-        <v>48342.567555100002</v>
+        <v>10550.3813596</v>
       </c>
       <c r="E97" s="1">
-        <v>324</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>14880.971312400001</v>
+      </c>
+      <c r="B98">
+        <v>820</v>
+      </c>
+      <c r="D98" s="1">
+        <v>12610.830366800001</v>
+      </c>
+      <c r="E98" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>9193.6727797599997</v>
+      </c>
+      <c r="B99">
+        <v>520</v>
+      </c>
+      <c r="D99" s="1">
+        <v>10496.466315</v>
+      </c>
+      <c r="E99" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>22469.289081300001</v>
+      </c>
+      <c r="B100">
+        <v>1180</v>
+      </c>
+      <c r="D100" s="1">
+        <v>181.23004471100001</v>
+      </c>
+      <c r="E100" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>22376.568385300001</v>
+      </c>
+      <c r="B101">
+        <v>1180</v>
+      </c>
+      <c r="D101" s="1">
+        <v>15739.0721072</v>
+      </c>
+      <c r="E101" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>7014.0188434199999</v>
+      </c>
+      <c r="B102">
+        <v>400</v>
+      </c>
+      <c r="D102" s="1">
+        <v>13463.1825295</v>
+      </c>
+      <c r="E102" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>11226.339342499999</v>
+      </c>
+      <c r="B103">
+        <v>620</v>
+      </c>
+      <c r="D103" s="1">
+        <v>9248.4326540900001</v>
+      </c>
+      <c r="E103" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>5213.4570540799996</v>
+      </c>
+      <c r="B104">
+        <v>310</v>
+      </c>
+      <c r="D104" s="1">
+        <v>9569.17714781</v>
+      </c>
+      <c r="E104" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>14790.2577341</v>
+      </c>
+      <c r="B105">
+        <v>800</v>
+      </c>
+      <c r="D105" s="1">
+        <v>6549.3689541200001</v>
+      </c>
+      <c r="E105" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>3922.4902333800001</v>
+      </c>
+      <c r="B106">
+        <v>250</v>
+      </c>
+      <c r="D106" s="1">
+        <v>15849.2721853</v>
+      </c>
+      <c r="E106" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>4849.2588324799999</v>
+      </c>
+      <c r="B107">
+        <v>290</v>
+      </c>
+      <c r="D107" s="1">
+        <v>5703.7527334200004</v>
+      </c>
+      <c r="E107" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>15817.419135300001</v>
+      </c>
+      <c r="B108">
+        <v>850</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3481.85357879</v>
+      </c>
+      <c r="E108" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>23948.213942400002</v>
+      </c>
+      <c r="B109">
+        <v>1260</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1808.85101457</v>
+      </c>
+      <c r="E109" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>11048.8198429</v>
+      </c>
+      <c r="B110">
+        <v>610</v>
+      </c>
+      <c r="D110" s="1">
+        <v>10550.012851400001</v>
+      </c>
+      <c r="E110" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>19275.778640699999</v>
+      </c>
+      <c r="B111">
+        <v>1030</v>
+      </c>
+      <c r="D111" s="1">
+        <v>176.292996088</v>
+      </c>
+      <c r="E111" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>345.33492384900001</v>
+      </c>
+      <c r="B112">
+        <v>70</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2852.7490067099998</v>
+      </c>
+      <c r="E112" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>5619.1094898000001</v>
+      </c>
+      <c r="B113">
+        <v>330</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2964.7176792</v>
+      </c>
+      <c r="E113" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>16110.756393899999</v>
+      </c>
+      <c r="B114">
+        <v>870</v>
+      </c>
+      <c r="D114" s="1">
+        <v>19274.629850199999</v>
+      </c>
+      <c r="E114" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>19723.269103400002</v>
+      </c>
+      <c r="B115">
+        <v>1040</v>
+      </c>
+      <c r="D115" s="1">
+        <v>13138.3135296</v>
+      </c>
+      <c r="E115" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>23342.947015999998</v>
+      </c>
+      <c r="B116">
+        <v>1230</v>
+      </c>
+      <c r="D116" s="1">
+        <v>13163.9019721</v>
+      </c>
+      <c r="E116" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>10757.1676229</v>
+      </c>
+      <c r="B117">
+        <v>600</v>
+      </c>
+      <c r="D117" s="1">
+        <v>20643.9280445</v>
+      </c>
+      <c r="E117" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>17981.632138100002</v>
+      </c>
+      <c r="B118">
+        <v>950</v>
+      </c>
+      <c r="D118" s="1">
+        <v>12799.149118200001</v>
+      </c>
+      <c r="E118" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>10667.8592976</v>
+      </c>
+      <c r="B119">
+        <v>590</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2136.86404614</v>
+      </c>
+      <c r="E119" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>10622.9966893</v>
+      </c>
+      <c r="B120">
+        <v>580</v>
+      </c>
+      <c r="D120" s="1">
+        <v>22502.304874599999</v>
+      </c>
+      <c r="E120" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>9448.4591573599992</v>
+      </c>
+      <c r="B121">
+        <v>530</v>
+      </c>
+      <c r="D121" s="1">
+        <v>141.560919442</v>
+      </c>
+      <c r="E121" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>15744.614810200001</v>
+      </c>
+      <c r="B122">
+        <v>850</v>
+      </c>
+      <c r="D122" s="1">
+        <v>6340.2181031600003</v>
+      </c>
+      <c r="E122" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>4257.2823196500003</v>
+      </c>
+      <c r="B123">
+        <v>270</v>
+      </c>
+      <c r="D123" s="1">
+        <v>11900.4176357</v>
+      </c>
+      <c r="E123" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>10162.3851952</v>
+      </c>
+      <c r="B124">
+        <v>560</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3166.8664356499999</v>
+      </c>
+      <c r="E124" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>15292.590927900001</v>
+      </c>
+      <c r="B125">
+        <v>830</v>
+      </c>
+      <c r="D125" s="1">
+        <v>7108.6496087799997</v>
+      </c>
+      <c r="E125" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>7949.4494466599999</v>
+      </c>
+      <c r="B126">
+        <v>460</v>
+      </c>
+      <c r="D126" s="1">
+        <v>18925.2008154</v>
+      </c>
+      <c r="E126" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>2999.35571815</v>
+      </c>
+      <c r="B127">
+        <v>210</v>
+      </c>
+      <c r="D127" s="1">
+        <v>23876.705531200001</v>
+      </c>
+      <c r="E127" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>18813.3985216</v>
+      </c>
+      <c r="B128">
+        <v>1000</v>
+      </c>
+      <c r="D128" s="1">
+        <v>8238.0165412400002</v>
+      </c>
+      <c r="E128" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>17505.057582099998</v>
+      </c>
+      <c r="B129">
+        <v>960</v>
+      </c>
+      <c r="D129" s="1">
+        <v>6959.1844244399999</v>
+      </c>
+      <c r="E129" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>9089.7607723300007</v>
+      </c>
+      <c r="B130">
+        <v>510</v>
+      </c>
+      <c r="D130" s="1">
+        <v>3371.8435781899998</v>
+      </c>
+      <c r="E130" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>7524.4085442699998</v>
+      </c>
+      <c r="B131">
+        <v>430</v>
+      </c>
+      <c r="D131" s="1">
+        <v>23195.614163800001</v>
+      </c>
+      <c r="E131" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>6594.5827638700002</v>
+      </c>
+      <c r="B132">
+        <v>390</v>
+      </c>
+      <c r="D132" s="1">
+        <v>23075.7123742</v>
+      </c>
+      <c r="E132" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>11842.8094917</v>
+      </c>
+      <c r="B133">
+        <v>650</v>
+      </c>
+      <c r="D133" s="1">
+        <v>2450.74830131</v>
+      </c>
+      <c r="E133" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>6989.2329247600001</v>
+      </c>
+      <c r="B134">
+        <v>410</v>
+      </c>
+      <c r="D134" s="1">
+        <v>10741.4748432</v>
+      </c>
+      <c r="E134" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>13513.552226600001</v>
+      </c>
+      <c r="B135">
+        <v>760</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2551.6982616400001</v>
+      </c>
+      <c r="E135" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>16076.676944500001</v>
+      </c>
+      <c r="B136">
+        <v>860</v>
+      </c>
+      <c r="D136" s="1">
+        <v>9241.8618427700003</v>
+      </c>
+      <c r="E136" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>1469.0810843199999</v>
+      </c>
+      <c r="B137">
+        <v>130</v>
+      </c>
+      <c r="D137" s="1">
+        <v>23775.426039599999</v>
+      </c>
+      <c r="E137" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>4676.9176931100001</v>
+      </c>
+      <c r="B138">
+        <v>300</v>
+      </c>
+      <c r="D138" s="1">
+        <v>7173.6223652299996</v>
+      </c>
+      <c r="E138" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>21398.505924500001</v>
+      </c>
+      <c r="B139">
+        <v>1130</v>
+      </c>
+      <c r="D139" s="1">
+        <v>5496.2713899399996</v>
+      </c>
+      <c r="E139" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>23160.065941199999</v>
+      </c>
+      <c r="B140">
+        <v>1220</v>
+      </c>
+      <c r="D140" s="1">
+        <v>13286.823158200001</v>
+      </c>
+      <c r="E140" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>3517.51916635</v>
+      </c>
+      <c r="B141">
+        <v>230</v>
+      </c>
+      <c r="D141" s="1">
+        <v>10667.096952</v>
+      </c>
+      <c r="E141" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>16531.726429599999</v>
+      </c>
+      <c r="B142">
+        <v>880</v>
+      </c>
+      <c r="D142" s="1">
+        <v>241.81980279499999</v>
+      </c>
+      <c r="E142" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>18732.7856651</v>
+      </c>
+      <c r="B143">
+        <v>990</v>
+      </c>
+      <c r="D143" s="1">
+        <v>6281.30013151</v>
+      </c>
+      <c r="E143" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>10962.0078588</v>
+      </c>
+      <c r="B144">
+        <v>610</v>
+      </c>
+      <c r="D144" s="1">
+        <v>12403.2455983</v>
+      </c>
+      <c r="E144" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>5977.5239770400003</v>
+      </c>
+      <c r="B145">
+        <v>350</v>
+      </c>
+      <c r="D145" s="1">
+        <v>247.247033378</v>
+      </c>
+      <c r="E145" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>413.29681093099998</v>
+      </c>
+      <c r="B146">
+        <v>70</v>
+      </c>
+      <c r="D146" s="1">
+        <v>2714.91512994</v>
+      </c>
+      <c r="E146" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>6032.21225254</v>
+      </c>
+      <c r="B147">
+        <v>350</v>
+      </c>
+      <c r="D147" s="1">
+        <v>21411.292715700001</v>
+      </c>
+      <c r="E147" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>20280.577217499998</v>
+      </c>
+      <c r="B148">
+        <v>1070</v>
+      </c>
+      <c r="D148" s="1">
+        <v>15353.3837121</v>
+      </c>
+      <c r="E148" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>12306.369730300001</v>
+      </c>
+      <c r="B149">
+        <v>670</v>
+      </c>
+      <c r="D149" s="1">
+        <v>7049.9352661499997</v>
+      </c>
+      <c r="E149" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>5371.4504932600003</v>
+      </c>
+      <c r="B150">
+        <v>320</v>
+      </c>
+      <c r="D150" s="1">
+        <v>8312.0174873199994</v>
+      </c>
+      <c r="E150" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>7048.8868044500005</v>
+      </c>
+      <c r="B151">
+        <v>410</v>
+      </c>
+      <c r="D151" s="1">
+        <v>3313.71163088</v>
+      </c>
+      <c r="E151" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>13017.0736029</v>
+      </c>
+      <c r="B152">
+        <v>710</v>
+      </c>
+      <c r="D152" s="1">
+        <v>22951.518797000001</v>
+      </c>
+      <c r="E152" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>17899.577187399998</v>
+      </c>
+      <c r="B153">
+        <v>970</v>
+      </c>
+      <c r="D153" s="1">
+        <v>17405.188402200001</v>
+      </c>
+      <c r="E153" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>11135.965268</v>
+      </c>
+      <c r="B154">
+        <v>610</v>
+      </c>
+      <c r="D154" s="1">
+        <v>12802.6707532</v>
+      </c>
+      <c r="E154" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>8308.2766077100005</v>
+      </c>
+      <c r="B155">
+        <v>470</v>
+      </c>
+      <c r="D155" s="1">
+        <v>7569.1474808200001</v>
+      </c>
+      <c r="E155" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>9925.8021389299993</v>
+      </c>
+      <c r="B156">
+        <v>550</v>
+      </c>
+      <c r="D156" s="1">
+        <v>14022.880140200001</v>
+      </c>
+      <c r="E156" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>21278.376061999999</v>
+      </c>
+      <c r="B157">
+        <v>1130</v>
+      </c>
+      <c r="D157" s="1">
+        <v>20477.877157899999</v>
+      </c>
+      <c r="E157" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>22930.0957375</v>
+      </c>
+      <c r="B158">
+        <v>1200</v>
+      </c>
+      <c r="D158" s="1">
+        <v>22003.3848717</v>
+      </c>
+      <c r="E158" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>14702.8094858</v>
+      </c>
+      <c r="B159">
+        <v>800</v>
+      </c>
+      <c r="D159" s="1">
+        <v>20957.9539573</v>
+      </c>
+      <c r="E159" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>6964.9739774299996</v>
+      </c>
+      <c r="B160">
+        <v>410</v>
+      </c>
+      <c r="D160" s="1">
+        <v>8051.2163890900001</v>
+      </c>
+      <c r="E160" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>7273.4836414399997</v>
+      </c>
+      <c r="B161">
+        <v>420</v>
+      </c>
+      <c r="D161" s="1">
+        <v>16255.274505699999</v>
+      </c>
+      <c r="E161" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>17036.562344000002</v>
+      </c>
+      <c r="B162">
+        <v>920</v>
+      </c>
+      <c r="D162" s="1">
+        <v>5158.7371783999997</v>
+      </c>
+      <c r="E162" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>18291.883601500002</v>
+      </c>
+      <c r="B163">
+        <v>1000</v>
+      </c>
+      <c r="D163" s="1">
+        <v>12184.8869008</v>
+      </c>
+      <c r="E163" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>19546.790257600001</v>
+      </c>
+      <c r="B164">
+        <v>1050</v>
+      </c>
+      <c r="D164" s="1">
+        <v>6618.8374060200003</v>
+      </c>
+      <c r="E164" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>2652.1654024700001</v>
+      </c>
+      <c r="B165">
+        <v>190</v>
+      </c>
+      <c r="D165" s="1">
+        <v>7759.7307676399996</v>
+      </c>
+      <c r="E165" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>9842.5945396700008</v>
+      </c>
+      <c r="B166">
+        <v>550</v>
+      </c>
+      <c r="D166" s="1">
+        <v>20530.912187900001</v>
+      </c>
+      <c r="E166" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>23040.433373</v>
+      </c>
+      <c r="B167">
+        <v>1210</v>
+      </c>
+      <c r="D167" s="1">
+        <v>13934.700808</v>
+      </c>
+      <c r="E167" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>21950.124358199999</v>
+      </c>
+      <c r="B168">
+        <v>1170</v>
+      </c>
+      <c r="D168" s="1">
+        <v>15273.3622201</v>
+      </c>
+      <c r="E168" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>1655.2545659499999</v>
+      </c>
+      <c r="B169">
+        <v>140</v>
+      </c>
+      <c r="D169" s="1">
+        <v>16819.692133500001</v>
+      </c>
+      <c r="E169" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>16513.860075299999</v>
+      </c>
+      <c r="B170">
+        <v>890</v>
+      </c>
+      <c r="D170" s="1">
+        <v>2480.0723621500001</v>
+      </c>
+      <c r="E170" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>20476.441475600001</v>
+      </c>
+      <c r="B171">
+        <v>1090</v>
+      </c>
+      <c r="D171" s="1">
+        <v>23304.623157400001</v>
+      </c>
+      <c r="E171" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>11635.505999200001</v>
+      </c>
+      <c r="B172">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
